--- a/Phase 5 - Entity Definition/extended_ontology/KGE24-UNITN.xlsx
+++ b/Phase 5 - Entity Definition/extended_ontology/KGE24-UNITN.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="147">
   <si>
     <t xml:space="preserve">osi</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t xml:space="preserve">EntityType, the other are attributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension made in the Data Mapping sub-phase</t>
   </si>
   <si>
     <t xml:space="preserve">*</t>
@@ -551,7 +554,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,6 +589,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -636,7 +645,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -681,7 +690,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -693,11 +706,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -755,7 +772,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -778,13 +795,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1048576"/>
+  <dimension ref="A1:M1008"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C64" activeCellId="0" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.51"/>
@@ -1481,10 +1498,10 @@
       <c r="C50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -1492,10 +1509,10 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -1503,10 +1520,10 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="11" t="s">
         <v>128</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -1514,10 +1531,10 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="11" t="s">
         <v>131</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -1525,10 +1542,10 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="11" t="s">
         <v>134</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -1536,10 +1553,10 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="11" t="s">
         <v>137</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -1552,39 +1569,44 @@
       <c r="A59" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B59" s="12"/>
+      <c r="B59" s="13"/>
       <c r="C59" s="9" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="13"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="9" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="14"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="15"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="s">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B63" s="17"/>
+      <c r="C63" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="0" t="s">
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="C65" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2527,12 +2549,12 @@
     <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1008" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" display="Use the UKC web portal to find already exisitng UKC concepts - https://ukc.datascientia.eu/concept"/>
     <hyperlink ref="E9" r:id="rId2" display="If a concept is available from another ontology or vocabulary. For example the OSM tags available here: https://wiki.openstreetmap.org/wiki/Map_features"/>
-    <hyperlink ref="C64" r:id="rId3" display="http://num.edu.mn/ontology"/>
+    <hyperlink ref="C65" r:id="rId3" display="Id’s marked with this simbol are part of  http://num.edu.mn/ontology . This ontology doesn’t provide Definitions for its entities, therefore such definitions are created ad hoc."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
